--- a/excel_files/11.7.1.1a.xlsx
+++ b/excel_files/11.7.1.1a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,6 +158,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,7 +294,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -336,6 +339,15 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,9 +633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -632,7 +646,7 @@
     <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -646,7 +660,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
@@ -657,8 +671,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -683,8 +697,11 @@
       <c r="H4" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -709,8 +726,11 @@
       <c r="H5" s="15">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -735,8 +755,11 @@
       <c r="H6" s="7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -761,8 +784,11 @@
       <c r="H7" s="7">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -787,8 +813,11 @@
       <c r="H8" s="7">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -813,8 +842,11 @@
       <c r="H9" s="7">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="17">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -839,8 +871,11 @@
       <c r="H10" s="7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -865,8 +900,11 @@
       <c r="H11" s="7">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
@@ -891,8 +929,11 @@
       <c r="H12" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="17">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
@@ -917,8 +958,11 @@
       <c r="H13" s="7">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -942,6 +986,9 @@
       </c>
       <c r="H14" s="5">
         <v>0.3</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/11.7.1.1a.xlsx
+++ b/excel_files/11.7.1.1a.xlsx
@@ -633,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
     <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
@@ -671,8 +671,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -700,8 +700,11 @@
       <c r="I4" s="1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -729,8 +732,11 @@
       <c r="I5" s="16">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -758,8 +764,11 @@
       <c r="I6" s="17">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -787,8 +796,11 @@
       <c r="I7" s="17">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -816,8 +828,11 @@
       <c r="I8" s="17">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -845,8 +860,11 @@
       <c r="I9" s="17">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="17">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -874,8 +892,11 @@
       <c r="I10" s="17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -903,8 +924,11 @@
       <c r="I11" s="17">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
@@ -932,8 +956,11 @@
       <c r="I12" s="17">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="17">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
@@ -961,8 +988,11 @@
       <c r="I13" s="17">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -988,6 +1018,9 @@
         <v>0.3</v>
       </c>
       <c r="I14" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="J14" s="18">
         <v>0.4</v>
       </c>
     </row>

--- a/excel_files/11.7.1.1a.xlsx
+++ b/excel_files/11.7.1.1a.xlsx
@@ -633,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
     <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
@@ -671,8 +671,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -703,8 +703,11 @@
       <c r="J4" s="1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -735,8 +738,11 @@
       <c r="J5" s="16">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="16">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -767,8 +773,11 @@
       <c r="J6" s="17">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -799,8 +808,11 @@
       <c r="J7" s="17">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -831,8 +843,11 @@
       <c r="J8" s="17">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -863,8 +878,11 @@
       <c r="J9" s="17">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="17">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -895,8 +913,11 @@
       <c r="J10" s="17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -927,8 +948,11 @@
       <c r="J11" s="17">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
@@ -959,8 +983,11 @@
       <c r="J12" s="17">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
@@ -991,8 +1018,11 @@
       <c r="J13" s="17">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="17">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -1022,6 +1052,9 @@
       </c>
       <c r="J14" s="18">
         <v>0.4</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/11.7.1.1a.xlsx
+++ b/excel_files/11.7.1.1a.xlsx
@@ -633,11 +633,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -646,7 +644,7 @@
     <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -660,7 +658,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
@@ -671,8 +669,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -706,8 +704,11 @@
       <c r="K4" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
@@ -741,8 +742,11 @@
       <c r="K5" s="16">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="16">
+        <v>1.6430457248453274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -776,8 +780,11 @@
       <c r="K6" s="17">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="17">
+        <v>0.41181606829870221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -811,8 +818,11 @@
       <c r="K7" s="17">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="17">
+        <v>0.94796963217320562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
@@ -846,8 +856,11 @@
       <c r="K8" s="17">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="17">
+        <v>0.72306112208737106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -881,8 +894,11 @@
       <c r="K9" s="17">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="17">
+        <v>2.1802539701246277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -916,8 +932,11 @@
       <c r="K10" s="17">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="17">
+        <v>0.63651150401750112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -951,8 +970,11 @@
       <c r="K11" s="17">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="17">
+        <v>0.97994201681774651</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
@@ -986,8 +1008,11 @@
       <c r="K12" s="17">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="17">
+        <v>2.2469385026996971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
@@ -1021,8 +1046,11 @@
       <c r="K13" s="17">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="17">
+        <v>4.1686356866605365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
@@ -1055,6 +1083,9 @@
       </c>
       <c r="K14" s="18">
         <v>0.3</v>
+      </c>
+      <c r="L14" s="18">
+        <v>0.3304193846038968</v>
       </c>
     </row>
   </sheetData>
